--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>14,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,71</t>
+          <t>105,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>105,67%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>149,59%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>71,9%</t>
         </is>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,03; 12,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,6</t>
+          <t>8,68; 15,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 14,95</t>
+          <t>10,62; 18,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 18,77</t>
+          <t>64,48; 162,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,21; 222,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,88; 163,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>91,54; 229,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>44,15; 104,94</t>
+          <t>45,16; 102,51</t>
         </is>
       </c>
     </row>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>174,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>174,72%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>206,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>88,39%</t>
         </is>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 3,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,49</t>
+          <t>2,44; 4,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,69</t>
+          <t>1,69; 6,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,11</t>
+          <t>73,46; 359,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>114,95; 370,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,0; 377,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>112,12; 360,78</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>37,26; 166,14</t>
+          <t>35,05; 175,84</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>97,61%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>48,53%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>210,94%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,29</t>
+          <t>-0,97; 3,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,92</t>
+          <t>3,19; 7,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,34</t>
+          <t>-53,53; 809,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,81; 289,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,94; 769,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-42,53; 263,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>94,78; 437,86</t>
+          <t>95,83; 432,23</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>159,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>159,63%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>185,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>112,14%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,86</t>
+          <t>4,71; 6,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,1</t>
+          <t>4,92; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,27</t>
+          <t>111,24; 224,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>132,09; 260,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>107,22; 220,03</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>127,83; 255,82</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>73,47; 165,75</t>
+          <t>70,36; 165,36</t>
         </is>
       </c>
     </row>
@@ -1016,11 +920,11 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
